--- a/biology/Biologie cellulaire et moléculaire/Kilobase/Kilobase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Kilobase/Kilobase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La kilobase (kb) est une unité de mesure en biologie moléculaire, représentant une longueur de 1 000 bases azotées. Elle est utilisée pour mesurer la longueur d'une molécule d'ARN ou d'ADN monocaténaire.
 La kilo paires de base (kpb) est une unité de mesure en biologie moléculaire représentant une longueur de 1 000 paires de bases d'ADN ou d'ARN bicaténaire.
